--- a/Proyecto_Empresa/Segunda Entrega/Cronograma.xlsx
+++ b/Proyecto_Empresa/Segunda Entrega/Cronograma.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TOSHIBA\Documents\UD\septimo semestre\fis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeisson\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>ACTIVIDAD</t>
   </si>
@@ -89,9 +89,6 @@
     <t xml:space="preserve"> - Codificación</t>
   </si>
   <si>
-    <t xml:space="preserve">       *Codificación detallada</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Pruebas</t>
   </si>
   <si>
@@ -108,6 +105,15 @@
   </si>
   <si>
     <t xml:space="preserve"> * Tercera Entrega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       *Interfaz gráfica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       *Lógica</t>
+  </si>
+  <si>
+    <t>Duracion</t>
   </si>
 </sst>
 </file>
@@ -123,7 +129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,8 +142,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -160,20 +172,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -191,6 +215,1819 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>INICIO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$4:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>43353</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43356</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43361</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43365</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43368</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43369</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43371</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Duracion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$4:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="216991536"/>
+        <c:axId val="216991928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="216991536"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="216991928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="216991928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="43371"/>
+          <c:min val="43353"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="216991536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="3"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$12:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>43486</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43505</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43508</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43514</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43516</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43517</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43523</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43516</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43516</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43516</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43521</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43521</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43522</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43523</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43526</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43530</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$12:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="404243080"/>
+        <c:axId val="404244256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="404243080"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="404244256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="404244256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="43530"/>
+          <c:min val="43353"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404243080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="348">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="348">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>880382</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>158523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>250031</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>875958</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>425224</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>178595</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -456,252 +2293,480 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D32"/>
+  <dimension ref="B3:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="B2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="C4" s="2">
+        <v>43353</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43355</v>
+      </c>
+      <c r="E4">
+        <f>D4-C4+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="C5" s="2">
+        <v>43356</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43356</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E33" si="0">D5-C5+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>43361</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>43366</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>43365</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>43367</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>43368</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>43368</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>43369</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>43370</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>43371</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>43371</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2">
+        <v>43486</v>
+      </c>
+      <c r="D12" s="2">
+        <v>43501</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2">
+        <v>43502</v>
+      </c>
+      <c r="D13" s="2">
+        <v>43515</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2">
+        <v>43502</v>
+      </c>
+      <c r="D14" s="2">
+        <v>43502</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2">
+        <v>43503</v>
+      </c>
+      <c r="D15" s="2">
+        <v>43504</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2">
+        <v>43505</v>
+      </c>
+      <c r="D16" s="2">
+        <v>43507</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2">
+        <v>43508</v>
+      </c>
+      <c r="D17" s="2">
+        <v>43511</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2">
+        <v>43512</v>
+      </c>
+      <c r="D18" s="2">
+        <v>43513</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2">
+        <v>43514</v>
+      </c>
+      <c r="D19" s="2">
+        <v>43515</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2">
+        <v>43512</v>
+      </c>
+      <c r="D20" s="2">
+        <v>43513</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2">
+        <v>43516</v>
+      </c>
+      <c r="D21" s="2">
+        <v>43516</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2">
+        <v>43517</v>
+      </c>
+      <c r="D22" s="2">
+        <v>43522</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2">
+        <v>43523</v>
+      </c>
+      <c r="D23" s="2">
+        <v>43523</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="2" t="s">
+      <c r="C24" s="2">
+        <v>43516</v>
+      </c>
+      <c r="D24" s="2">
+        <v>43521</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="2">
+        <v>43516</v>
+      </c>
+      <c r="D25" s="2">
+        <v>43521</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2">
+        <v>43516</v>
+      </c>
+      <c r="D26" s="2">
+        <v>43521</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
+      <c r="C27" s="2">
+        <v>43521</v>
+      </c>
+      <c r="D27" s="2">
+        <v>43523</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="2" t="s">
+      <c r="C28" s="2">
+        <v>43521</v>
+      </c>
+      <c r="D28" s="2">
+        <v>43522</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="2" t="s">
+      <c r="C29" s="2">
+        <v>43522</v>
+      </c>
+      <c r="D29" s="2">
+        <v>43523</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="2" t="s">
+      <c r="C30" s="2">
+        <v>43523</v>
+      </c>
+      <c r="D30" s="2">
+        <v>43524</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="2" t="s">
+      <c r="C31" s="2">
+        <v>43525</v>
+      </c>
+      <c r="D31" s="2">
+        <v>43525</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="2">
+        <v>43526</v>
+      </c>
+      <c r="D32" s="2">
+        <v>43529</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="C33" s="2">
+        <v>43530</v>
+      </c>
+      <c r="D33" s="2">
+        <v>43530</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>